--- a/HealthCareManagementSystem-Backlog Doc.xlsx
+++ b/HealthCareManagementSystem-Backlog Doc.xlsx
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -786,13 +786,13 @@
     <t>High</t>
   </si>
   <si>
-    <t>USHealthMGMT:001</t>
+    <t>HealthMGMT:001</t>
   </si>
   <si>
     <t>Design Documentation for Backend application</t>
   </si>
   <si>
-    <t>Govind</t>
+    <t>Princy</t>
   </si>
   <si>
     <t>Average</t>
@@ -801,19 +801,19 @@
     <t>Low</t>
   </si>
   <si>
-    <t>RD:Business Requirement Doc</t>
+    <t>RD:Health Care Management System Doc</t>
   </si>
   <si>
     <t>Non-Functional</t>
   </si>
   <si>
-    <t>22 hrs</t>
+    <t>20.5 hrs</t>
   </si>
   <si>
     <t>Design is fullfilled agaist Business requirement</t>
   </si>
   <si>
-    <t>USFlightMGMT:002</t>
+    <t>HealthMGMT:002</t>
   </si>
   <si>
     <t>Test Plan</t>
@@ -825,7 +825,7 @@
     <t>Check the test case is fullfiled with user accepance criteria document</t>
   </si>
   <si>
-    <t>USFlightMGMT:003</t>
+    <t>HealthMGMT:003</t>
   </si>
   <si>
     <t>Bootstrapping the project</t>
@@ -837,10 +837,10 @@
     <t xml:space="preserve">RD:1 Application SetUp </t>
   </si>
   <si>
-    <t>RD: FlightDesinDocument_ver1</t>
-  </si>
-  <si>
-    <t>4 hrs</t>
+    <t>RD:HealthCareManagementSystem_ver1</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
   </si>
   <si>
     <t>Checking Against the Application Setup and ensure the equired dependencies and run the main code and check the server is tarted without errors</t>
@@ -849,10 +849,10 @@
     <t>Work session</t>
   </si>
   <si>
-    <t>USFlightMGMT:004</t>
-  </si>
-  <si>
-    <t>Entity Class and TableDEsign and Populating the data</t>
+    <t>HealthMGMT:004</t>
+  </si>
+  <si>
+    <t>Entity Class and TableDesign and Populating the data</t>
   </si>
   <si>
     <t>Complex</t>
@@ -861,57 +861,54 @@
     <t>RD2: Entity Class Design and RD3: Table Design</t>
   </si>
   <si>
-    <t>RD: FlightDesinDocument_ver2</t>
+    <t>RD:HealthCareManagementSystem_ver2</t>
   </si>
   <si>
     <t>Functional</t>
   </si>
   <si>
+    <t>7 hrs</t>
+  </si>
+  <si>
     <t>Checking against the Table design in RD</t>
   </si>
   <si>
-    <t>USFlightMGMT:005</t>
-  </si>
-  <si>
-    <t>Displaying Flight Schedule for the given source, destination and date of jouney</t>
-  </si>
-  <si>
-    <t>RD 4: Displaying the flight schedule</t>
-  </si>
-  <si>
-    <t>RD: FlightDesinDocument_ver3</t>
-  </si>
-  <si>
-    <t>16 hrs</t>
-  </si>
-  <si>
-    <t>TC_Service_01,TC_DAO_01, TC_UI_01</t>
-  </si>
-  <si>
-    <t>USFlightMGMT:006</t>
-  </si>
-  <si>
-    <t>Booking the Flight Ticket</t>
-  </si>
-  <si>
-    <t>RD7: Booking the Flight tkt</t>
-  </si>
-  <si>
-    <t>RD: FlightDesinDocument_ver4</t>
-  </si>
-  <si>
-    <t>16hrs</t>
-  </si>
-  <si>
-    <t>TC_Service_02,TC_DAO_02, TC_UI_03</t>
+    <t>HealthMGMT:005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Centre, Test , Appointment and user. Perform Create, Add, Update and Delete </t>
+  </si>
+  <si>
+    <t>RD 4: Making Service And Dao for Module</t>
+  </si>
+  <si>
+    <t>RD:HealthCareManagementSystem_ver3</t>
+  </si>
+  <si>
+    <t>13 hrs</t>
+  </si>
+  <si>
+    <t>Test Implemented Service  Using Postman</t>
+  </si>
+  <si>
+    <t>HealthMGMT:006</t>
+  </si>
+  <si>
+    <t>Perform Approval of Appointment, Adding of Centre and Test inside it.</t>
+  </si>
+  <si>
+    <t>RD7: Performe Operation</t>
+  </si>
+  <si>
+    <t>RD:HealthCareManagementSystem_ver4</t>
+  </si>
+  <si>
+    <t>Performe Customer operation using bank Employee on Postman</t>
   </si>
   <si>
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>USFlightMGMT:007</t>
-  </si>
-  <si>
     <t>Design Documentation fo Angular application</t>
   </si>
   <si>
@@ -924,16 +921,46 @@
     <t>Non Functional</t>
   </si>
   <si>
-    <t>USFlightMGMT:008</t>
-  </si>
-  <si>
-    <t>USFlightMGMT:009</t>
+    <t>HealthMGMT:007</t>
+  </si>
+  <si>
+    <t>Making Components</t>
+  </si>
+  <si>
+    <t>HealthMGMT:008</t>
   </si>
   <si>
     <t>Design a home page having standard menus</t>
   </si>
   <si>
-    <t>USFlightMGMT:010</t>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Along with test</t>
+  </si>
+  <si>
+    <t>HealthMGMT:009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement of Components and service </t>
+  </si>
+  <si>
+    <t>Implement the Service in components</t>
+  </si>
+  <si>
+    <t>HealthMGMT:010</t>
+  </si>
+  <si>
+    <t>Testing individual parts</t>
+  </si>
+  <si>
+    <t>Test the Application using Angular and Spring boot</t>
+  </si>
+  <si>
+    <t>HealthMGMT:011</t>
+  </si>
+  <si>
+    <t>HealthMGMT:012</t>
   </si>
   <si>
     <t>Sprint Backlog 2</t>
@@ -984,13 +1011,22 @@
     <t>Wireframes and story boarding for each task</t>
   </si>
   <si>
-    <t>Nishant</t>
+    <t>Princy Pandey</t>
+  </si>
+  <si>
+    <t>5hr</t>
+  </si>
+  <si>
+    <t>0hr</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
   <si>
     <t>Routing Url List</t>
   </si>
   <si>
-    <t>Indla mahesh</t>
+    <t>Maneesh Kumar</t>
   </si>
   <si>
     <t>Data classes details</t>
@@ -1005,10 +1041,13 @@
     <t>Detail about the security</t>
   </si>
   <si>
-    <t>Test Plan for Booking Ticket</t>
-  </si>
-  <si>
-    <t>Test Plan for displaying schedule</t>
+    <t>service in Angular</t>
+  </si>
+  <si>
+    <t>3hr</t>
+  </si>
+  <si>
+    <t>Check data flow and mapping</t>
   </si>
   <si>
     <t>Designing menu in template</t>
@@ -1020,16 +1059,34 @@
     <t>Displaying standard info or advertisement</t>
   </si>
   <si>
-    <t>Design a form that captures no of passengers and flight schedule</t>
+    <t>connection between backend and frontend</t>
+  </si>
+  <si>
+    <t>6hr</t>
   </si>
   <si>
     <t>Component sends the details to service</t>
   </si>
   <si>
-    <t>Angular service make the webservice call and get the Booking Id ref from the backend</t>
-  </si>
-  <si>
-    <t>Design a web design to display generated booking ID or error response sent by the server</t>
+    <t>Make url toconnect to backend with front end</t>
+  </si>
+  <si>
+    <t>Check the data transfer between frontend and backend</t>
+  </si>
+  <si>
+    <t>Check the operation of service is working fine with both end</t>
+  </si>
+  <si>
+    <t>Handling error in Frontend</t>
+  </si>
+  <si>
+    <t>Checking project is working or not handling the error and or not and verify important comment</t>
+  </si>
+  <si>
+    <t>4hr</t>
+  </si>
+  <si>
+    <t>Check all the written test cases and implement the backend test case</t>
   </si>
   <si>
     <t>List User Story steps that were not completed at Sprint End</t>
@@ -1041,9 +1098,6 @@
     <t>Entity Class Design</t>
   </si>
   <si>
-    <t>Princy</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -1077,9 +1131,6 @@
     <t>Webservice URL Details</t>
   </si>
   <si>
-    <t>USHealthMGMT:002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test plan for dao, </t>
   </si>
   <si>
@@ -1089,9 +1140,6 @@
     <t>Test plan for webservice methods</t>
   </si>
   <si>
-    <t>USHealthMGMT:003</t>
-  </si>
-  <si>
     <t>Creating a Spring boot starter project</t>
   </si>
   <si>
@@ -1101,16 +1149,10 @@
     <t>Adding server, jpa properties in application.properties</t>
   </si>
   <si>
-    <t>USHealthMGMT:004</t>
-  </si>
-  <si>
     <t>Check tables are poulated in DB</t>
   </si>
   <si>
     <t>Populate the Data</t>
-  </si>
-  <si>
-    <t>USHealthMGMT:005</t>
   </si>
   <si>
     <t>Write a JPQL query to add, delete and retrieve the centre and test details in DAO layer</t>
@@ -1740,7 +1782,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1846,6 +1888,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1996,6 +2041,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2008,6 +2056,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
@@ -2070,9 +2124,6 @@
     </xf>
     <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
@@ -3654,7 +3705,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3665,12 +3716,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3681,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3883,7 +3934,7 @@
       <c r="T4" s="21"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" ht="63.75" customHeight="1">
+    <row r="5" ht="26.5" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="16">
         <v>2</v>
@@ -3904,7 +3955,9 @@
       <c r="H5" t="s" s="20">
         <v>29</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" t="s" s="17">
+        <v>30</v>
+      </c>
       <c r="J5" t="s" s="17">
         <v>31</v>
       </c>
@@ -3928,7 +3981,7 @@
       <c r="T5" s="21"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" ht="114.75" customHeight="1">
+    <row r="6" ht="23.7" customHeight="1">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -3981,7 +4034,7 @@
       <c r="T6" s="21"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" ht="38.25" customHeight="1">
+    <row r="7" ht="43.15" customHeight="1">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -4026,15 +4079,15 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" t="s" s="23">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s" s="20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="21"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" ht="25.5" customHeight="1">
+    <row r="8" ht="35.65" customHeight="1">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -4048,10 +4101,10 @@
         <v>26</v>
       </c>
       <c r="E8" t="s" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s" s="20">
         <v>29</v>
@@ -4060,16 +4113,16 @@
         <v>29</v>
       </c>
       <c r="I8" t="s" s="17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s" s="17">
         <v>31</v>
       </c>
       <c r="K8" t="s" s="18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s" s="20">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s" s="17">
         <v>53</v>
@@ -4079,15 +4132,15 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" t="s" s="23">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s" s="20">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" ht="25.5" customHeight="1">
+    <row r="9" ht="41.4" customHeight="1">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -4101,10 +4154,10 @@
         <v>26</v>
       </c>
       <c r="E9" t="s" s="18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s" s="20">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s" s="20">
         <v>29</v>
@@ -4119,10 +4172,10 @@
         <v>31</v>
       </c>
       <c r="K9" t="s" s="18">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s" s="20">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s" s="17">
         <v>53</v>
@@ -4132,7 +4185,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" t="s" s="23">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s" s="20">
         <v>66</v>
@@ -4141,15 +4194,9 @@
       <c r="U9" s="10"/>
     </row>
     <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" s="16">
-        <v>6</v>
-      </c>
-      <c r="B10" s="16">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s" s="17">
-        <v>47</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="21"/>
       <c r="F10" s="7"/>
@@ -4426,10 +4473,10 @@
         <v>26</v>
       </c>
       <c r="E20" t="s" s="18">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s" s="20">
         <v>68</v>
-      </c>
-      <c r="F20" t="s" s="20">
-        <v>69</v>
       </c>
       <c r="G20" t="s" s="23">
         <v>29</v>
@@ -4444,13 +4491,13 @@
         <v>31</v>
       </c>
       <c r="K20" t="s" s="18">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s" s="32">
         <v>70</v>
       </c>
-      <c r="L20" t="s" s="32">
+      <c r="M20" t="s" s="17">
         <v>71</v>
-      </c>
-      <c r="M20" t="s" s="17">
-        <v>72</v>
       </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
@@ -4473,18 +4520,28 @@
         <v>26</v>
       </c>
       <c r="E21" t="s" s="18">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="20">
         <v>37</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G21" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s" s="23">
+        <v>29</v>
+      </c>
       <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="21"/>
+      <c r="J21" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s" s="18">
+        <v>73</v>
+      </c>
       <c r="L21" s="25"/>
-      <c r="M21" s="24"/>
+      <c r="M21" t="s" s="17">
+        <v>71</v>
+      </c>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="7"/>
@@ -4511,13 +4568,25 @@
       <c r="F22" t="s" s="20">
         <v>75</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="21"/>
+      <c r="G22" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s" s="17">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s" s="17">
+        <v>76</v>
+      </c>
+      <c r="K22" t="s" s="18">
+        <v>77</v>
+      </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="24"/>
+      <c r="M22" t="s" s="17">
+        <v>53</v>
+      </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="7"/>
@@ -4527,7 +4596,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" ht="11.3" customHeight="1">
       <c r="A23" s="16">
         <v>17</v>
       </c>
@@ -4537,18 +4606,30 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" t="s" s="18">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s" s="17">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s" s="17">
         <v>76</v>
       </c>
-      <c r="F23" t="s" s="20">
-        <v>62</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="21"/>
+      <c r="K23" t="s" s="18">
+        <v>80</v>
+      </c>
       <c r="L23" s="25"/>
-      <c r="M23" s="24"/>
+      <c r="M23" t="s" s="17">
+        <v>53</v>
+      </c>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="7"/>
@@ -4569,15 +4650,19 @@
       <c r="D24" s="24"/>
       <c r="E24" s="34"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s" s="35">
+        <v>29</v>
+      </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="33"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="8"/>
@@ -4596,8 +4681,12 @@
       <c r="D25" s="24"/>
       <c r="E25" s="21"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s" s="23">
+        <v>29</v>
+      </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
       <c r="K25" s="21"/>
@@ -4621,15 +4710,31 @@
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="21"/>
+      <c r="E26" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s" s="17">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s" s="17">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s" s="18">
+        <v>83</v>
+      </c>
       <c r="L26" s="25"/>
-      <c r="M26" s="24"/>
+      <c r="M26" t="s" s="17">
+        <v>53</v>
+      </c>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="7"/>
@@ -4641,22 +4746,44 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B27" s="16">
-        <v>23</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="C27" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s" s="18">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s" s="17">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s" s="18">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s" s="32">
+        <v>70</v>
+      </c>
+      <c r="M27" t="s" s="17">
+        <v>71</v>
+      </c>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="7"/>
@@ -4667,23 +4794,39 @@
       <c r="U27" s="10"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="16">
-        <v>22</v>
-      </c>
+      <c r="A28" s="22"/>
       <c r="B28" s="16">
-        <v>24</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C28" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s" s="18">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s" s="23">
+        <v>29</v>
+      </c>
       <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="21"/>
+      <c r="J28" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="K28" t="s" s="18">
+        <v>73</v>
+      </c>
       <c r="L28" s="25"/>
-      <c r="M28" s="24"/>
+      <c r="M28" t="s" s="17">
+        <v>71</v>
+      </c>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="7"/>
@@ -4703,7 +4846,7 @@
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="36"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="24"/>
@@ -4730,7 +4873,7 @@
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="36"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="24"/>
@@ -4757,7 +4900,7 @@
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="36"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="24"/>
@@ -4784,7 +4927,7 @@
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="36"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="24"/>
@@ -4811,7 +4954,7 @@
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="36"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="24"/>
@@ -4838,7 +4981,7 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="36"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="24"/>
@@ -4865,7 +5008,7 @@
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="36"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="24"/>
@@ -4892,7 +5035,7 @@
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="36"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="24"/>
@@ -4910,29 +5053,29 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="16">
         <v>33</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="41"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="42"/>
     </row>
     <row r="38" ht="18" customHeight="1">
       <c r="A38" s="16">
@@ -4944,7 +5087,7 @@
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="36"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="24"/>
@@ -4971,7 +5114,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="36"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="24"/>
@@ -4996,15 +5139,15 @@
         <v>36</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="43"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="21"/>
-      <c r="L40" s="44"/>
+      <c r="L40" s="45"/>
       <c r="M40" s="21"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
@@ -5023,15 +5166,15 @@
         <v>37</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="42"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="43"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="44"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="24"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
@@ -5050,15 +5193,15 @@
         <v>38</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="42"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="43"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="44"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="24"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
@@ -5077,15 +5220,15 @@
         <v>39</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="42"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="21"/>
-      <c r="L43" s="44"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="24"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
@@ -5104,15 +5247,15 @@
         <v>40</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="21"/>
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="44"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="24"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
@@ -5131,15 +5274,15 @@
         <v>41</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="42"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="43"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="44"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="24"/>
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
@@ -5158,15 +5301,15 @@
         <v>42</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="42"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="43"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="44"/>
+      <c r="L46" s="45"/>
       <c r="M46" s="24"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
@@ -5185,13 +5328,13 @@
         <v>43</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="21"/>
       <c r="L47" s="7"/>
       <c r="M47" s="24"/>
@@ -5212,13 +5355,13 @@
         <v>44</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="36"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
       <c r="K48" s="21"/>
       <c r="L48" s="7"/>
       <c r="M48" s="24"/>
@@ -5239,13 +5382,13 @@
         <v>45</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="21"/>
-      <c r="F49" s="36"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
       <c r="K49" s="21"/>
       <c r="L49" s="7"/>
       <c r="M49" s="24"/>
@@ -5266,13 +5409,13 @@
         <v>46</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
       <c r="K50" s="21"/>
       <c r="L50" s="7"/>
       <c r="M50" s="24"/>
@@ -5293,13 +5436,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="42"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="36"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
       <c r="K51" s="21"/>
       <c r="L51" s="7"/>
       <c r="M51" s="24"/>
@@ -5322,7 +5465,7 @@
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="43"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="24"/>
@@ -5349,7 +5492,7 @@
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="43"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="24"/>
@@ -5372,7 +5515,7 @@
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="43"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="24"/>
@@ -5395,7 +5538,7 @@
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="43"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="24"/>
@@ -5418,7 +5561,7 @@
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="43"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="24"/>
@@ -5441,7 +5584,7 @@
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="43"/>
+      <c r="F57" s="44"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="24"/>
@@ -5459,1315 +5602,1315 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" ht="71.25" customHeight="1">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="51"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="52"/>
       <c r="P58" s="7"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="41"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="42"/>
     </row>
     <row r="59" ht="50.25" customHeight="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="57"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="58"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
     </row>
     <row r="60" ht="40.5" customHeight="1">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="57"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="58"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
     </row>
     <row r="61" ht="37.5" customHeight="1">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="57"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="58"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="10"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
     </row>
     <row r="62" ht="99" customHeight="1">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="60"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="61"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="10"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
     </row>
     <row r="63" ht="37.5" customHeight="1">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="60"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="61"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="10"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
     </row>
     <row r="64" ht="37.5" customHeight="1">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="60"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="61"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="10"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
     </row>
     <row r="65" ht="41.25" customHeight="1">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="60"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="61"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="10"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="60"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="61"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="10"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
     </row>
     <row r="67" ht="37.5" customHeight="1">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="60"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="61"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="10"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
     </row>
     <row r="68" ht="44.25" customHeight="1">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="60"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="61"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="10"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="41"/>
-      <c r="U68" s="41"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
     </row>
     <row r="69" ht="60.75" customHeight="1">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="60"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="61"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="10"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
     </row>
     <row r="70" ht="97.5" customHeight="1">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="60"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="61"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="10"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="41"/>
-      <c r="U70" s="41"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
     </row>
     <row r="71" ht="81" customHeight="1">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="60"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="61"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="10"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="41"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
     </row>
     <row r="72" ht="58.5" customHeight="1">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="60"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="61"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="10"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
     </row>
     <row r="73" ht="72" customHeight="1">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="60"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="61"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="10"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="41"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
     </row>
     <row r="74" ht="43.5" customHeight="1">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="60"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="61"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="10"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="41"/>
-      <c r="U74" s="41"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
     </row>
     <row r="75" ht="56.25" customHeight="1">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="60"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="61"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="10"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
     </row>
     <row r="76" ht="28.5" customHeight="1">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="60"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="61"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="10"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
     </row>
     <row r="77" ht="47.25" customHeight="1">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="60"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="61"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="10"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
     </row>
     <row r="78" ht="29.25" customHeight="1">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="60"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="61"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="10"/>
-      <c r="R78" s="55"/>
-      <c r="S78" s="55"/>
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
     </row>
     <row r="79" ht="60.75" customHeight="1">
-      <c r="A79" s="58"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="60"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="61"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="10"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="41"/>
-      <c r="U79" s="41"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="56"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
     </row>
     <row r="80" ht="60" customHeight="1">
-      <c r="A80" s="58"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="60"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="61"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="10"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="41"/>
-      <c r="U80" s="41"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
     </row>
     <row r="81" ht="36" customHeight="1">
-      <c r="A81" s="58"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="60"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="61"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="10"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="41"/>
-      <c r="U81" s="41"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
     </row>
     <row r="82" ht="31.5" customHeight="1">
-      <c r="A82" s="58"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="60"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="61"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="10"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42"/>
     </row>
     <row r="83" ht="41.25" customHeight="1">
-      <c r="A83" s="58"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="60"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="61"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="10"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="41"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
     </row>
     <row r="84" ht="31.5" customHeight="1">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="60"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="61"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="10"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="41"/>
-      <c r="U84" s="41"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
     </row>
     <row r="85" ht="42" customHeight="1">
-      <c r="A85" s="58"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="60"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="61"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="10"/>
-      <c r="R85" s="55"/>
-      <c r="S85" s="55"/>
-      <c r="T85" s="41"/>
-      <c r="U85" s="41"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="42"/>
+      <c r="U85" s="42"/>
     </row>
     <row r="86" ht="43.5" customHeight="1">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="60"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="61"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="10"/>
-      <c r="R86" s="55"/>
-      <c r="S86" s="55"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="41"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="42"/>
+      <c r="U86" s="42"/>
     </row>
     <row r="87" ht="82.5" customHeight="1">
-      <c r="A87" s="58"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="60"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="57"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="61"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="10"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
     </row>
     <row r="88" ht="35.25" customHeight="1">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="60"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="61"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="10"/>
-      <c r="R88" s="55"/>
-      <c r="S88" s="55"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="56"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="42"/>
     </row>
     <row r="89" ht="34.5" customHeight="1">
-      <c r="A89" s="58"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="54"/>
-      <c r="O89" s="60"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="61"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="10"/>
-      <c r="R89" s="55"/>
-      <c r="S89" s="55"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="42"/>
+      <c r="U89" s="42"/>
     </row>
     <row r="90" ht="35.25" customHeight="1">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="54"/>
-      <c r="O90" s="60"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="57"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="61"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="10"/>
-      <c r="R90" s="55"/>
-      <c r="S90" s="55"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="42"/>
     </row>
     <row r="91" ht="30" customHeight="1">
-      <c r="A91" s="58"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="62"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="57"/>
+      <c r="N91" s="62"/>
+      <c r="O91" s="63"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="10"/>
-      <c r="R91" s="55"/>
-      <c r="S91" s="55"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="56"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
     </row>
     <row r="92" ht="43.5" customHeight="1">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="63"/>
-      <c r="O92" s="64"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="57"/>
+      <c r="N92" s="64"/>
+      <c r="O92" s="65"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="10"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
     </row>
     <row r="93" ht="68.25" customHeight="1">
-      <c r="A93" s="58"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="63"/>
-      <c r="O93" s="64"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="64"/>
+      <c r="O93" s="65"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="10"/>
-      <c r="R93" s="55"/>
-      <c r="S93" s="55"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="41"/>
+      <c r="R93" s="56"/>
+      <c r="S93" s="56"/>
+      <c r="T93" s="42"/>
+      <c r="U93" s="42"/>
     </row>
     <row r="94" ht="33.75" customHeight="1">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="54"/>
-      <c r="O94" s="60"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="61"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="10"/>
-      <c r="R94" s="55"/>
-      <c r="S94" s="55"/>
-      <c r="T94" s="41"/>
-      <c r="U94" s="41"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="56"/>
+      <c r="T94" s="42"/>
+      <c r="U94" s="42"/>
     </row>
     <row r="95" ht="64.5" customHeight="1">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="60"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="61"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="10"/>
-      <c r="R95" s="55"/>
-      <c r="S95" s="55"/>
-      <c r="T95" s="41"/>
-      <c r="U95" s="41"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="56"/>
+      <c r="T95" s="42"/>
+      <c r="U95" s="42"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="56"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="55"/>
-      <c r="S96" s="55"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="56"/>
-      <c r="B97" s="56"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="55"/>
-      <c r="S97" s="55"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="57"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="56"/>
+      <c r="S97" s="56"/>
+      <c r="T97" s="42"/>
+      <c r="U97" s="42"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="56"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="56"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="56"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="55"/>
-      <c r="S98" s="55"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="57"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="56"/>
+      <c r="T98" s="42"/>
+      <c r="U98" s="42"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="56"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="56"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="55"/>
-      <c r="S99" s="55"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="57"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="56"/>
+      <c r="S99" s="56"/>
+      <c r="T99" s="42"/>
+      <c r="U99" s="42"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="56"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="56"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-      <c r="R100" s="55"/>
-      <c r="S100" s="55"/>
-      <c r="T100" s="41"/>
-      <c r="U100" s="41"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="42"/>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="56"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="42"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="56"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="56"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="55"/>
-      <c r="S101" s="55"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
+      <c r="A101" s="57"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="57"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="55"/>
+      <c r="P101" s="42"/>
+      <c r="Q101" s="42"/>
+      <c r="R101" s="56"/>
+      <c r="S101" s="56"/>
+      <c r="T101" s="42"/>
+      <c r="U101" s="42"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="56"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="56"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="55"/>
-      <c r="S102" s="55"/>
-      <c r="T102" s="41"/>
-      <c r="U102" s="41"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="57"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="55"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="56"/>
+      <c r="T102" s="42"/>
+      <c r="U102" s="42"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="56"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="56"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="55"/>
-      <c r="S103" s="55"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="60"/>
+      <c r="M103" s="57"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="55"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="56"/>
+      <c r="S103" s="56"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="42"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="56"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
-      <c r="R104" s="55"/>
-      <c r="S104" s="55"/>
-      <c r="T104" s="41"/>
-      <c r="U104" s="41"/>
+      <c r="A104" s="57"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="57"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="55"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="56"/>
+      <c r="S104" s="56"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="42"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="56"/>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="59"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="41"/>
-      <c r="R105" s="55"/>
-      <c r="S105" s="55"/>
-      <c r="T105" s="41"/>
-      <c r="U105" s="41"/>
+      <c r="A105" s="57"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="57"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="56"/>
+      <c r="T105" s="42"/>
+      <c r="U105" s="42"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="56"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="41"/>
-      <c r="R106" s="55"/>
-      <c r="S106" s="55"/>
-      <c r="T106" s="41"/>
-      <c r="U106" s="41"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="60"/>
+      <c r="M106" s="57"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="56"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="42"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="56"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="55"/>
-      <c r="S107" s="55"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="60"/>
+      <c r="M107" s="57"/>
+      <c r="N107" s="55"/>
+      <c r="O107" s="55"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="56"/>
+      <c r="S107" s="56"/>
+      <c r="T107" s="42"/>
+      <c r="U107" s="42"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="56"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="55"/>
-      <c r="S108" s="55"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="57"/>
+      <c r="N108" s="55"/>
+      <c r="O108" s="55"/>
+      <c r="P108" s="42"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="56"/>
+      <c r="T108" s="42"/>
+      <c r="U108" s="42"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="54"/>
-      <c r="O109" s="54"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
-      <c r="R109" s="55"/>
-      <c r="S109" s="55"/>
-      <c r="T109" s="41"/>
-      <c r="U109" s="41"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="60"/>
+      <c r="M109" s="57"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="55"/>
+      <c r="P109" s="42"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="56"/>
+      <c r="S109" s="56"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="42"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="56"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="59"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="54"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="41"/>
-      <c r="R110" s="55"/>
-      <c r="S110" s="55"/>
-      <c r="T110" s="41"/>
-      <c r="U110" s="41"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="60"/>
+      <c r="M110" s="57"/>
+      <c r="N110" s="55"/>
+      <c r="O110" s="55"/>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="56"/>
+      <c r="S110" s="56"/>
+      <c r="T110" s="42"/>
+      <c r="U110" s="42"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="56"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="55"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="59"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="55"/>
-      <c r="S111" s="55"/>
-      <c r="T111" s="41"/>
-      <c r="U111" s="41"/>
+      <c r="A111" s="57"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="60"/>
+      <c r="M111" s="57"/>
+      <c r="N111" s="55"/>
+      <c r="O111" s="55"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="56"/>
+      <c r="T111" s="42"/>
+      <c r="U111" s="42"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="56"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="59"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="54"/>
-      <c r="O112" s="54"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41"/>
-      <c r="R112" s="55"/>
-      <c r="S112" s="55"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="41"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="57"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="60"/>
+      <c r="M112" s="57"/>
+      <c r="N112" s="55"/>
+      <c r="O112" s="55"/>
+      <c r="P112" s="42"/>
+      <c r="Q112" s="42"/>
+      <c r="R112" s="56"/>
+      <c r="S112" s="56"/>
+      <c r="T112" s="42"/>
+      <c r="U112" s="42"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="56"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="59"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="54"/>
-      <c r="O113" s="54"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
-      <c r="R113" s="55"/>
-      <c r="S113" s="55"/>
-      <c r="T113" s="41"/>
-      <c r="U113" s="41"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="57"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="42"/>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="56"/>
+      <c r="S113" s="56"/>
+      <c r="T113" s="42"/>
+      <c r="U113" s="42"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="56"/>
-      <c r="B114" s="56"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="54"/>
-      <c r="O114" s="54"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="55"/>
-      <c r="S114" s="55"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="41"/>
+      <c r="A114" s="57"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="55"/>
+      <c r="O114" s="55"/>
+      <c r="P114" s="42"/>
+      <c r="Q114" s="42"/>
+      <c r="R114" s="56"/>
+      <c r="S114" s="56"/>
+      <c r="T114" s="42"/>
+      <c r="U114" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6788,52 +6931,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="65" customWidth="1"/>
-    <col min="2" max="2" width="19.6719" style="65" customWidth="1"/>
-    <col min="3" max="3" width="17.8516" style="65" customWidth="1"/>
-    <col min="4" max="4" width="18.1719" style="65" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="65" customWidth="1"/>
-    <col min="6" max="11" width="8.85156" style="65" customWidth="1"/>
-    <col min="12" max="12" width="29.5" style="65" customWidth="1"/>
-    <col min="13" max="16" width="8.85156" style="65" customWidth="1"/>
-    <col min="17" max="16384" width="8.85156" style="65" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="66" customWidth="1"/>
+    <col min="2" max="2" width="19.6719" style="66" customWidth="1"/>
+    <col min="3" max="3" width="17.8516" style="66" customWidth="1"/>
+    <col min="4" max="4" width="18.1719" style="66" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="66" customWidth="1"/>
+    <col min="6" max="11" width="8.85156" style="66" customWidth="1"/>
+    <col min="12" max="12" width="29.5" style="66" customWidth="1"/>
+    <col min="13" max="16" width="8.85156" style="66" customWidth="1"/>
+    <col min="17" max="16384" width="8.85156" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" ht="63.75" customHeight="1">
       <c r="A3" t="s" s="15">
@@ -6842,70 +6985,80 @@
       <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="82">
-        <v>78</v>
+      <c r="C3" t="s" s="83">
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="14">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s" s="15">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s" s="15">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s" s="15">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="15">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s" s="15">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s" s="15">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="15">
-        <v>86</v>
-      </c>
-      <c r="L3" t="s" s="83">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="L3" t="s" s="84">
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="15">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="15">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s" s="15">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s" s="15">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="38.25" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" t="s" s="18">
-        <v>68</v>
-      </c>
-      <c r="C4" s="84">
+        <v>74</v>
+      </c>
+      <c r="C4" s="85">
         <v>1</v>
       </c>
       <c r="D4" t="s" s="19">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F4" s="86">
+        <v>43948</v>
+      </c>
+      <c r="G4" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="J4" s="85">
+        <v>5</v>
+      </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="85"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
@@ -6914,14 +7067,14 @@
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="84">
+      <c r="C5" s="85">
         <v>2</v>
       </c>
       <c r="D5" t="s" s="19">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s" s="20">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6929,7 +7082,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="85"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -6938,11 +7091,11 @@
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="84">
+      <c r="C6" s="85">
         <v>3</v>
       </c>
       <c r="D6" t="s" s="20">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6951,7 +7104,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="85"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -6960,11 +7113,11 @@
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="84">
+      <c r="C7" s="85">
         <v>4</v>
       </c>
       <c r="D7" t="s" s="20">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6973,7 +7126,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="85"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -6982,11 +7135,11 @@
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="84">
+      <c r="C8" s="85">
         <v>5</v>
       </c>
       <c r="D8" t="s" s="20">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6995,7 +7148,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="85"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7004,11 +7157,11 @@
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="84">
+      <c r="C9" s="85">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="20">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -7017,7 +7170,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="85"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -7026,22 +7179,32 @@
     <row r="10" ht="25.5" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" t="s" s="18">
-        <v>73</v>
-      </c>
-      <c r="C10" s="84">
+        <v>78</v>
+      </c>
+      <c r="C10" s="85">
         <v>1</v>
       </c>
       <c r="D10" t="s" s="20">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="86">
+        <v>43949</v>
+      </c>
+      <c r="G10" t="s" s="20">
+        <v>113</v>
+      </c>
+      <c r="H10" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="J10" s="85">
+        <v>3</v>
+      </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="85"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -7050,11 +7213,11 @@
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="84">
+      <c r="C11" s="85">
         <v>2</v>
       </c>
       <c r="D11" t="s" s="20">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -7063,7 +7226,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="85"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -7072,22 +7235,32 @@
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="C12" s="84">
+        <v>81</v>
+      </c>
+      <c r="C12" s="85">
         <v>1</v>
       </c>
       <c r="D12" t="s" s="20">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="86">
+        <v>43950</v>
+      </c>
+      <c r="G12" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="J12" s="85">
+        <v>5</v>
+      </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="85"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -7096,11 +7269,11 @@
     <row r="13" ht="25.5" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="84">
+      <c r="C13" s="85">
         <v>2</v>
       </c>
       <c r="D13" t="s" s="20">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -7109,7 +7282,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="85"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -7118,11 +7291,11 @@
     <row r="14" ht="38.25" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="84">
+      <c r="C14" s="85">
         <v>3</v>
       </c>
       <c r="D14" t="s" s="20">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -7131,7 +7304,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="85"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -7140,22 +7313,32 @@
     <row r="15" ht="51" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" t="s" s="18">
-        <v>76</v>
-      </c>
-      <c r="C15" s="84">
+        <v>84</v>
+      </c>
+      <c r="C15" s="85">
         <v>1</v>
       </c>
       <c r="D15" t="s" s="20">
+        <v>118</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="86">
+        <v>43981</v>
+      </c>
+      <c r="G15" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s" s="20">
         <v>105</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="85">
+        <v>6</v>
+      </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="85"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -7164,11 +7347,11 @@
     <row r="16" ht="38.25" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="84">
+      <c r="C16" s="85">
         <v>2</v>
       </c>
       <c r="D16" t="s" s="20">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7177,7 +7360,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="85"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -7186,20 +7369,20 @@
     <row r="17" ht="63.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="84">
+      <c r="C17" s="85">
         <v>3</v>
       </c>
       <c r="D17" t="s" s="20">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="86"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="85"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -7208,48 +7391,66 @@
     <row r="18" ht="63.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="84">
+      <c r="C18" s="85">
         <v>4</v>
       </c>
       <c r="D18" t="s" s="20">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="85"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" ht="44.55" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="85">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s" s="20">
+        <v>123</v>
+      </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="F19" s="88">
+        <v>43982</v>
+      </c>
+      <c r="G19" t="s" s="20">
+        <v>113</v>
+      </c>
+      <c r="H19" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="J19" s="85">
+        <v>3</v>
+      </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="85"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" ht="34.4" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="85">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s" s="20">
+        <v>124</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -7257,7 +7458,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="85"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -7275,29 +7476,45 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
+      <c r="L21" s="87"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+    </row>
+    <row r="22" ht="64.05" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" t="s" s="18">
+        <v>85</v>
+      </c>
+      <c r="C22" s="85">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s" s="20">
+        <v>125</v>
+      </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="F22" s="86">
+        <v>43982</v>
+      </c>
+      <c r="G22" t="s" s="20">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="J22" s="85">
+        <v>4</v>
+      </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="7"/>
@@ -7311,553 +7528,567 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+    </row>
+    <row r="24" ht="54.15" customHeight="1">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="32">
+        <v>127</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="F24" s="92">
+        <v>43983</v>
+      </c>
+      <c r="G24" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s" s="19">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s" s="19">
+        <v>105</v>
+      </c>
+      <c r="J24" s="91">
+        <v>3</v>
+      </c>
+      <c r="K24" s="90"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="88"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="90"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
     </row>
     <row r="48" ht="51" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" t="s" s="96">
-        <v>109</v>
-      </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="99"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" t="s" s="100">
+        <v>128</v>
+      </c>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="103"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="100"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="107"/>
+      <c r="P49" s="107"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7878,57 +8109,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="104" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="104" customWidth="1"/>
-    <col min="3" max="3" width="9.17188" style="104" customWidth="1"/>
-    <col min="4" max="4" width="28.8516" style="104" customWidth="1"/>
-    <col min="5" max="5" width="16.8516" style="104" customWidth="1"/>
-    <col min="6" max="6" width="13.3516" style="104" customWidth="1"/>
-    <col min="7" max="10" width="11.1719" style="104" customWidth="1"/>
-    <col min="11" max="11" width="32.5" style="104" customWidth="1"/>
-    <col min="12" max="12" width="18.8516" style="104" customWidth="1"/>
-    <col min="13" max="13" width="14.6719" style="104" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="104" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="104" customWidth="1"/>
-    <col min="16" max="16" width="15.5" style="104" customWidth="1"/>
-    <col min="17" max="16384" width="9.17188" style="104" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="108" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="108" customWidth="1"/>
+    <col min="3" max="3" width="9.17188" style="108" customWidth="1"/>
+    <col min="4" max="4" width="28.8516" style="108" customWidth="1"/>
+    <col min="5" max="5" width="16.8516" style="108" customWidth="1"/>
+    <col min="6" max="6" width="13.3516" style="108" customWidth="1"/>
+    <col min="7" max="10" width="11.1719" style="108" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="108" customWidth="1"/>
+    <col min="12" max="12" width="18.8516" style="108" customWidth="1"/>
+    <col min="13" max="13" width="14.6719" style="108" customWidth="1"/>
+    <col min="14" max="14" width="10.8516" style="108" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="108" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="108" customWidth="1"/>
+    <col min="17" max="16384" width="9.17188" style="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" ht="89.25" customHeight="1">
       <c r="A3" t="s" s="15">
@@ -7937,82 +8168,82 @@
       <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="82">
-        <v>78</v>
+      <c r="C3" t="s" s="83">
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="14">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s" s="15">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s" s="15">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s" s="15">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="15">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s" s="15">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s" s="15">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="15">
-        <v>86</v>
-      </c>
-      <c r="L3" t="s" s="83">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="L3" t="s" s="84">
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="15">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="15">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s" s="15">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s" s="15">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="84">
+      <c r="A4" s="85">
         <v>1</v>
       </c>
       <c r="B4" t="s" s="18">
         <v>27</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="85">
         <v>1</v>
       </c>
       <c r="D4" t="s" s="19">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F4" s="107">
+        <v>29</v>
+      </c>
+      <c r="F4" s="111">
         <v>43938</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="112">
         <v>0.125</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I4" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J4" s="84">
+        <v>131</v>
+      </c>
+      <c r="J4" s="85">
         <v>3</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="85"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
@@ -8021,32 +8252,32 @@
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="84">
+      <c r="C5" s="85">
         <v>2</v>
       </c>
       <c r="D5" t="s" s="19">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F5" s="107">
+        <v>29</v>
+      </c>
+      <c r="F5" s="111">
         <v>43938</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I5" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J5" s="84">
+        <v>131</v>
+      </c>
+      <c r="J5" s="85">
         <v>2</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="85"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -8055,32 +8286,32 @@
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="84">
+      <c r="C6" s="85">
         <v>3</v>
       </c>
       <c r="D6" t="s" s="20">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="F6" s="107">
+        <v>134</v>
+      </c>
+      <c r="F6" s="111">
         <v>43938</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="112">
         <v>0.02083333333333333</v>
       </c>
       <c r="I6" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J6" s="84">
+        <v>131</v>
+      </c>
+      <c r="J6" s="85">
         <v>1</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="85"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -8089,32 +8320,32 @@
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="84">
+      <c r="C7" s="85">
         <v>4</v>
       </c>
       <c r="D7" t="s" s="20">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s" s="20">
-        <v>118</v>
-      </c>
-      <c r="F7" s="107">
+        <v>136</v>
+      </c>
+      <c r="F7" s="111">
         <v>43938</v>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="112">
         <v>0.04166666666666666</v>
       </c>
       <c r="I7" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J7" s="84">
+        <v>131</v>
+      </c>
+      <c r="J7" s="85">
         <v>1</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="85"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -8123,32 +8354,32 @@
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="84">
+      <c r="C8" s="85">
         <v>5</v>
       </c>
       <c r="D8" t="s" s="20">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s" s="20">
-        <v>118</v>
-      </c>
-      <c r="F8" s="107">
+        <v>136</v>
+      </c>
+      <c r="F8" s="111">
         <v>43938</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="112">
         <v>0.1666666666666667</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I8" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J8" s="84">
+        <v>131</v>
+      </c>
+      <c r="J8" s="85">
         <v>3</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="85"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8157,32 +8388,32 @@
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="84">
+      <c r="C9" s="85">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="20">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s" s="20">
-        <v>118</v>
-      </c>
-      <c r="F9" s="107">
+        <v>136</v>
+      </c>
+      <c r="F9" s="111">
         <v>43938</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="112">
         <v>0.1666666666666667</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I9" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J9" s="84">
+        <v>131</v>
+      </c>
+      <c r="J9" s="85">
         <v>3</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="85"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -8191,32 +8422,32 @@
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="84">
+      <c r="C10" s="85">
         <v>7</v>
       </c>
       <c r="D10" t="s" s="20">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="F10" s="107">
+        <v>134</v>
+      </c>
+      <c r="F10" s="111">
         <v>43938</v>
       </c>
-      <c r="G10" s="108">
+      <c r="G10" s="112">
         <v>0.04166666666666666</v>
       </c>
-      <c r="H10" s="108">
+      <c r="H10" s="112">
         <v>0.04166666666666666</v>
       </c>
       <c r="I10" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J10" s="84">
+        <v>131</v>
+      </c>
+      <c r="J10" s="85">
         <v>1</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="85"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -8225,32 +8456,32 @@
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="84">
+      <c r="C11" s="85">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="20">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="F11" s="107">
+        <v>134</v>
+      </c>
+      <c r="F11" s="111">
         <v>43938</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H11" s="108">
+      <c r="H11" s="112">
         <v>0.02083333333333333</v>
       </c>
       <c r="I11" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J11" s="84">
+        <v>131</v>
+      </c>
+      <c r="J11" s="85">
         <v>2</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="85"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -8259,32 +8490,32 @@
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="84">
+      <c r="C12" s="85">
         <v>9</v>
       </c>
       <c r="D12" t="s" s="20">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F12" s="107">
+        <v>29</v>
+      </c>
+      <c r="F12" s="111">
         <v>43938</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="112">
         <v>0.04166666666666666</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="112">
         <v>0.04166666666666666</v>
       </c>
       <c r="I12" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J12" s="84">
+        <v>131</v>
+      </c>
+      <c r="J12" s="85">
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="85"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -8296,51 +8527,51 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="85"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" s="84">
+      <c r="A14" s="85">
         <v>2</v>
       </c>
       <c r="B14" t="s" s="18">
-        <v>124</v>
-      </c>
-      <c r="C14" s="84">
+        <v>36</v>
+      </c>
+      <c r="C14" s="85">
         <v>1</v>
       </c>
       <c r="D14" t="s" s="20">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F14" s="107">
+        <v>29</v>
+      </c>
+      <c r="F14" s="111">
         <v>43941</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="112">
         <v>0.02083333333333333</v>
       </c>
       <c r="I14" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J14" s="84">
+        <v>131</v>
+      </c>
+      <c r="J14" s="85">
         <v>2</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="85"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -8349,32 +8580,32 @@
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="84">
+      <c r="C15" s="85">
         <v>2</v>
       </c>
       <c r="D15" t="s" s="20">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F15" s="107">
+        <v>29</v>
+      </c>
+      <c r="F15" s="111">
         <v>43941</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="112">
         <v>0.04166666666666666</v>
       </c>
       <c r="I15" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J15" s="84">
+        <v>131</v>
+      </c>
+      <c r="J15" s="85">
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="85"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -8383,32 +8614,32 @@
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="84">
+      <c r="C16" s="85">
         <v>3</v>
       </c>
       <c r="D16" t="s" s="20">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F16" s="107">
+        <v>29</v>
+      </c>
+      <c r="F16" s="111">
         <v>43941</v>
       </c>
-      <c r="G16" s="108">
+      <c r="G16" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H16" s="108">
+      <c r="H16" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I16" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J16" s="84">
+        <v>131</v>
+      </c>
+      <c r="J16" s="85">
         <v>3</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="85"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -8420,51 +8651,51 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="85"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" s="84">
+      <c r="A18" s="85">
         <v>3</v>
       </c>
       <c r="B18" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="C18" s="84">
+        <v>40</v>
+      </c>
+      <c r="C18" s="85">
         <v>1</v>
       </c>
       <c r="D18" t="s" s="17">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="F18" s="109">
+        <v>134</v>
+      </c>
+      <c r="F18" s="113">
         <v>43941</v>
       </c>
-      <c r="G18" s="108">
+      <c r="G18" s="112">
         <v>0.02083333333333333</v>
       </c>
-      <c r="H18" s="108">
+      <c r="H18" s="112">
         <v>0.02083333333333333</v>
       </c>
       <c r="I18" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J18" s="84">
+        <v>131</v>
+      </c>
+      <c r="J18" s="85">
         <v>0.5</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="85"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -8473,32 +8704,32 @@
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="84">
+      <c r="C19" s="85">
         <v>2</v>
       </c>
       <c r="D19" t="s" s="20">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="F19" s="109">
+        <v>134</v>
+      </c>
+      <c r="F19" s="113">
         <v>43941</v>
       </c>
-      <c r="G19" s="108">
+      <c r="G19" s="112">
         <v>0.02083333333333333</v>
       </c>
-      <c r="H19" s="108">
+      <c r="H19" s="112">
         <v>0.02083333333333333</v>
       </c>
       <c r="I19" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J19" s="84">
+        <v>131</v>
+      </c>
+      <c r="J19" s="85">
         <v>0.5</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="85"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -8507,32 +8738,32 @@
     <row r="20" ht="25.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="84">
+      <c r="C20" s="85">
         <v>3</v>
       </c>
       <c r="D20" t="s" s="20">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s" s="20">
+        <v>134</v>
+      </c>
+      <c r="F20" s="113">
+        <v>43941</v>
+      </c>
+      <c r="G20" s="112">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="H20" s="112">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="I20" t="s" s="20">
         <v>131</v>
       </c>
-      <c r="E20" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="F20" s="109">
-        <v>43941</v>
-      </c>
-      <c r="G20" s="108">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="H20" s="108">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="I20" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J20" s="84">
+      <c r="J20" s="85">
         <v>0.5</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="85"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -8544,51 +8775,51 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="85"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" s="84">
+      <c r="A22" s="85">
         <v>4</v>
       </c>
       <c r="B22" t="s" s="18">
-        <v>132</v>
-      </c>
-      <c r="C22" s="84">
+        <v>48</v>
+      </c>
+      <c r="C22" s="85">
         <v>1</v>
       </c>
       <c r="D22" t="s" s="20">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F22" s="109">
+        <v>29</v>
+      </c>
+      <c r="F22" s="113">
         <v>43942</v>
       </c>
-      <c r="G22" s="108">
+      <c r="G22" s="112">
         <v>0.04166666666666666</v>
       </c>
-      <c r="H22" s="108">
+      <c r="H22" s="112">
         <v>0.04166666666666666</v>
       </c>
       <c r="I22" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J22" s="84">
+        <v>131</v>
+      </c>
+      <c r="J22" s="85">
         <v>1</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="85"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
@@ -8597,32 +8828,32 @@
     <row r="23" ht="13.65" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="84">
+      <c r="C23" s="85">
         <v>2</v>
       </c>
       <c r="D23" t="s" s="20">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F23" s="109">
+        <v>29</v>
+      </c>
+      <c r="F23" s="113">
         <v>43942</v>
       </c>
-      <c r="G23" s="108">
+      <c r="G23" s="112">
         <v>0.125</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I23" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J23" s="84">
+        <v>131</v>
+      </c>
+      <c r="J23" s="85">
         <v>3</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="85"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -8631,32 +8862,32 @@
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="84">
+      <c r="C24" s="85">
         <v>3</v>
       </c>
       <c r="D24" t="s" s="20">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s" s="20">
-        <v>118</v>
-      </c>
-      <c r="F24" s="109">
+        <v>136</v>
+      </c>
+      <c r="F24" s="113">
         <v>43942</v>
       </c>
-      <c r="G24" s="108">
+      <c r="G24" s="112">
         <v>0.125</v>
       </c>
-      <c r="H24" s="108">
+      <c r="H24" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I24" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J24" s="84">
+        <v>131</v>
+      </c>
+      <c r="J24" s="85">
         <v>2</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="85"/>
+      <c r="L24" s="87"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -8668,1177 +8899,1177 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="85"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" ht="35.65" customHeight="1">
-      <c r="A26" s="84">
+      <c r="A26" s="85">
         <v>5</v>
       </c>
       <c r="B26" t="s" s="18">
-        <v>135</v>
-      </c>
-      <c r="C26" s="84">
+        <v>56</v>
+      </c>
+      <c r="C26" s="85">
         <v>1</v>
       </c>
       <c r="D26" t="s" s="32">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F26" s="109">
+        <v>29</v>
+      </c>
+      <c r="F26" s="113">
         <v>43943</v>
       </c>
-      <c r="G26" s="108">
+      <c r="G26" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H26" s="108">
+      <c r="H26" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I26" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J26" s="84">
+        <v>131</v>
+      </c>
+      <c r="J26" s="85">
         <v>2</v>
       </c>
       <c r="K26" s="7"/>
-      <c r="L26" s="85"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
     <row r="27" ht="51" customHeight="1">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="110">
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="32">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F27" s="111">
+        <v>29</v>
+      </c>
+      <c r="F27" s="114">
         <v>43943</v>
       </c>
-      <c r="G27" s="108">
+      <c r="G27" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H27" s="108">
+      <c r="H27" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I27" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J27" s="110">
+        <v>131</v>
+      </c>
+      <c r="J27" s="91">
         <v>2</v>
       </c>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
     <row r="28" ht="38.25" customHeight="1">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="110">
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91">
         <v>3</v>
       </c>
       <c r="D28" t="s" s="32">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F28" s="111">
+        <v>29</v>
+      </c>
+      <c r="F28" s="114">
         <v>43943</v>
       </c>
-      <c r="G28" s="108">
+      <c r="G28" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H28" s="108">
+      <c r="H28" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I28" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J28" s="110">
+        <v>131</v>
+      </c>
+      <c r="J28" s="91">
         <v>2</v>
       </c>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="93"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
     <row r="29" ht="51" customHeight="1">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="110">
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="91">
         <v>4</v>
       </c>
       <c r="D29" t="s" s="32">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F29" s="111">
+        <v>29</v>
+      </c>
+      <c r="F29" s="114">
         <v>43943</v>
       </c>
-      <c r="G29" s="108">
+      <c r="G29" s="112">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H29" s="108">
+      <c r="H29" s="112">
         <v>0.08333333333333333</v>
       </c>
       <c r="I29" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J29" s="110">
+        <v>131</v>
+      </c>
+      <c r="J29" s="91">
         <v>2</v>
       </c>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="93"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
     </row>
     <row r="30" ht="13.65" customHeight="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="25"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="93"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
     </row>
     <row r="31" ht="38.25" customHeight="1">
-      <c r="A31" s="110">
+      <c r="A31" s="91">
         <v>6</v>
       </c>
       <c r="B31" t="s" s="18">
-        <v>61</v>
-      </c>
-      <c r="C31" s="110">
+        <v>62</v>
+      </c>
+      <c r="C31" s="91">
         <v>1</v>
       </c>
       <c r="D31" t="s" s="32">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F31" s="112">
+        <v>29</v>
+      </c>
+      <c r="F31" s="115">
         <v>43944</v>
       </c>
-      <c r="G31" s="113">
+      <c r="G31" s="116">
         <v>0.125</v>
       </c>
-      <c r="H31" s="113">
+      <c r="H31" s="116">
         <v>0.125</v>
       </c>
       <c r="I31" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J31" s="110">
+        <v>131</v>
+      </c>
+      <c r="J31" s="91">
         <v>2.5</v>
       </c>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="93"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="110">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91">
         <v>2</v>
       </c>
       <c r="D32" t="s" s="32">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F32" s="112">
+        <v>29</v>
+      </c>
+      <c r="F32" s="115">
         <v>43944</v>
       </c>
-      <c r="G32" s="113">
+      <c r="G32" s="116">
         <v>0.125</v>
       </c>
-      <c r="H32" s="113">
+      <c r="H32" s="116">
         <v>0.125</v>
       </c>
       <c r="I32" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J32" s="110">
+        <v>131</v>
+      </c>
+      <c r="J32" s="91">
         <v>2</v>
       </c>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="93"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
     </row>
     <row r="33" ht="44.35" customHeight="1">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="110">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="91">
         <v>3</v>
       </c>
       <c r="D33" t="s" s="32">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F33" s="112">
+        <v>29</v>
+      </c>
+      <c r="F33" s="115">
         <v>43944</v>
       </c>
-      <c r="G33" s="113">
+      <c r="G33" s="116">
         <v>0.125</v>
       </c>
-      <c r="H33" s="113">
+      <c r="H33" s="116">
         <v>0.08333333333333333</v>
       </c>
       <c r="I33" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J33" s="110">
+        <v>131</v>
+      </c>
+      <c r="J33" s="91">
         <v>2</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="93"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
     </row>
     <row r="34" ht="38.25" customHeight="1">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="110">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91">
         <v>4</v>
       </c>
       <c r="D34" t="s" s="32">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F34" s="112">
+        <v>29</v>
+      </c>
+      <c r="F34" s="115">
         <v>43944</v>
       </c>
-      <c r="G34" s="113">
+      <c r="G34" s="116">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H34" s="113">
+      <c r="H34" s="116">
         <v>0.08333333333333333</v>
       </c>
       <c r="I34" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J34" s="110">
+        <v>131</v>
+      </c>
+      <c r="J34" s="91">
         <v>1.5</v>
       </c>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="93"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
     </row>
     <row r="35" ht="25.5" customHeight="1">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="110">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91">
         <v>5</v>
       </c>
       <c r="D35" t="s" s="32">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F35" s="112">
+        <v>29</v>
+      </c>
+      <c r="F35" s="115">
         <v>43944</v>
       </c>
-      <c r="G35" s="113">
+      <c r="G35" s="116">
         <v>0.04166666666666666</v>
       </c>
-      <c r="H35" s="113">
+      <c r="H35" s="116">
         <v>0.04166666666666666</v>
       </c>
       <c r="I35" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J35" s="110">
+        <v>131</v>
+      </c>
+      <c r="J35" s="91">
         <v>0.5</v>
       </c>
-      <c r="K35" s="88"/>
-      <c r="L35" s="89"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="93"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
     <row r="36" ht="13.65" customHeight="1">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="89"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="93"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
     </row>
     <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" s="110">
+      <c r="A37" s="91">
         <v>7</v>
       </c>
-      <c r="B37" t="s" s="114">
-        <v>68</v>
-      </c>
-      <c r="C37" s="110">
+      <c r="B37" t="s" s="117">
+        <v>72</v>
+      </c>
+      <c r="C37" s="91">
         <v>1</v>
       </c>
       <c r="D37" t="s" s="32">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s" s="19">
-        <v>112</v>
-      </c>
-      <c r="F37" s="112">
+        <v>29</v>
+      </c>
+      <c r="F37" s="115">
         <v>43945</v>
       </c>
-      <c r="G37" s="113">
+      <c r="G37" s="116">
         <v>0.125</v>
       </c>
-      <c r="H37" s="113">
+      <c r="H37" s="116">
         <v>0.125</v>
       </c>
       <c r="I37" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="J37" s="110">
+        <v>131</v>
+      </c>
+      <c r="J37" s="91">
         <v>3</v>
       </c>
-      <c r="K37" s="88"/>
-      <c r="L37" s="89"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="93"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="89"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="93"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="89"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="93"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="89"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="93"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="89"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="93"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="89"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="93"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="89"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="93"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="25"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="89"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="93"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="89"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="93"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="89"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="93"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="89"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="93"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="89"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="93"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="89"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="93"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="89"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="93"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="118"/>
+      <c r="N51" s="118"/>
+      <c r="O51" s="118"/>
+      <c r="P51" s="118"/>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" t="s" s="96">
-        <v>109</v>
-      </c>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="98"/>
-      <c r="O52" s="98"/>
-      <c r="P52" s="99"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" t="s" s="100">
+        <v>128</v>
+      </c>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="103"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="100"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="116"/>
-      <c r="O53" s="116"/>
-      <c r="P53" s="116"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="89"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="93"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="25"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="89"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="93"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="89"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="93"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="89"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="93"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="89"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="93"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="25"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="89"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="93"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="89"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="93"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
+      <c r="A61" s="90"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="89"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="93"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="89"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="93"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="88"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="88"/>
+      <c r="A63" s="90"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="89"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="93"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="88"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="89"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="93"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="88"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="88"/>
+      <c r="A65" s="90"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="89"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="93"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="89"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="93"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="88"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="88"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="89"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="93"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="89"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="93"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="88"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="89"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="93"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="88"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
+      <c r="A70" s="90"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="89"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="93"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="88"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="88"/>
+      <c r="A71" s="90"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="89"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="93"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="89"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="93"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="88"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
+      <c r="A73" s="90"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="89"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="93"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="88"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
-      <c r="K74" s="88"/>
-      <c r="L74" s="89"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="93"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="88"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="88"/>
+      <c r="A75" s="90"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="25"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
-      <c r="K75" s="88"/>
-      <c r="L75" s="89"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="93"/>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="88"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="88"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="25"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="89"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="93"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="88"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="88"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="25"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="89"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="93"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="89"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="90"/>
+      <c r="L78" s="93"/>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="88"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="88"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="25"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88"/>
-      <c r="J79" s="88"/>
-      <c r="K79" s="88"/>
-      <c r="L79" s="89"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="93"/>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="88"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="89"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="90"/>
+      <c r="I80" s="90"/>
+      <c r="J80" s="90"/>
+      <c r="K80" s="90"/>
+      <c r="L80" s="93"/>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
